--- a/testing_resources/xlsxtest004.xlsx
+++ b/testing_resources/xlsxtest004.xlsx
@@ -56,7 +56,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="165"/>
+    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -123,9 +123,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -146,14 +147,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C4" activeCellId="0" pane="topLeft" sqref="C4"/>
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -164,7 +165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -172,10 +173,11 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -183,6 +185,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -194,18 +197,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="b">
-        <v>1</v>
+      <c r="C5" s="2" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
